--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\university\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\DS_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65804952-4E05-4CA6-8B8C-2943E503FE81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D249AB0-5291-4AFD-894F-D86715CD56BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{9B74386C-A63B-435E-A2C3-44516846CBF9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
   <si>
     <t>性別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +284,22 @@
   </si>
   <si>
     <t>elsa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ideal_age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ideal_gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>male</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>female</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,15 +664,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8B4A2A-234A-4F4D-9CA5-C1EB14B22C40}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -669,8 +685,14 @@
       <c r="D1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -683,8 +705,14 @@
       <c r="D2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -697,8 +725,14 @@
       <c r="D3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -711,8 +745,14 @@
       <c r="D4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -725,8 +765,14 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -739,8 +785,14 @@
       <c r="D6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -753,8 +805,14 @@
       <c r="D7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -767,8 +825,14 @@
       <c r="D8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -781,8 +845,14 @@
       <c r="D9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -795,8 +865,14 @@
       <c r="D10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -809,8 +885,14 @@
       <c r="D11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -823,8 +905,14 @@
       <c r="D12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -837,8 +925,14 @@
       <c r="D13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -851,8 +945,14 @@
       <c r="D14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -865,8 +965,14 @@
       <c r="D15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -879,8 +985,14 @@
       <c r="D16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -893,8 +1005,14 @@
       <c r="D17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -907,8 +1025,14 @@
       <c r="D18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -921,8 +1045,14 @@
       <c r="D19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -935,8 +1065,14 @@
       <c r="D20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -949,8 +1085,14 @@
       <c r="D21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -963,8 +1105,14 @@
       <c r="D22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -977,8 +1125,14 @@
       <c r="D23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -991,8 +1145,14 @@
       <c r="D24" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1005,8 +1165,14 @@
       <c r="D25" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1019,8 +1185,14 @@
       <c r="D26" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>40</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1033,8 +1205,14 @@
       <c r="D27" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1047,8 +1225,14 @@
       <c r="D28" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>49</v>
+      </c>
+      <c r="F28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1061,8 +1245,14 @@
       <c r="D29" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1075,8 +1265,14 @@
       <c r="D30" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>27</v>
+      </c>
+      <c r="F30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1088,11 +1284,17 @@
       </c>
       <c r="D31" t="s">
         <v>64</v>
+      </c>
+      <c r="E31">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>